--- a/Descargas/R15_Juzgado De Familia De Calama_Ingresos Causas Por Materia_2020-Abríl.xlsx
+++ b/Descargas/R15_Juzgado De Familia De Calama_Ingresos Causas Por Materia_2020-Abríl.xlsx
@@ -231,7 +231,7 @@
         </is>
       </c>
       <c r="B3" s="65">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4">
